--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -1800,13 +1800,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2091,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7307,7 +7307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -7404,15 +7404,15 @@
         <v>100</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7449,22 +7449,22 @@
         <v>130</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
@@ -7473,14 +7473,14 @@
         <v>150</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7509,15 +7509,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -7554,22 +7554,22 @@
         <v>230</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
@@ -7578,14 +7578,14 @@
         <v>250</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -11886,6 +11886,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -11898,16 +11908,6 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12016,31 +12016,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -12088,31 +12088,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -12151,26 +12151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F8280-DDE4-4F81-944E-D0614EC151B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2880" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +235,111 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{9592EE1C-574C-4870-9ED7-1FE67367A072}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Скрывать элементы при отсутствии связи </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B6F84298-4E14-44F5-B74D-F87008505B72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Position error. Бит ошибки положения в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{BD1AA67D-82F3-4AA3-B35B-E19408595448}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Null Object. Бит отсутствия объекта в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{2EC26FF0-A620-49B9-8F98-E9C8C49D14B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Очистка отображения положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -434,12 +539,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -623,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -649,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -675,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -701,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -725,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -751,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -778,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -804,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -830,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -857,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -883,7 +988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0">
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -935,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0" shapeId="0">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1086,6 +1191,344 @@
           </rPr>
           <t xml:space="preserve">
 LDM2. Адрес в сети</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{5B9F63F1-2CA1-4C80-85D5-C0AD5655A80C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Автор:
+LDM 3. Выборка данных D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{3096BC96-A244-470C-8822-FA6A60C8C334}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Выборка данных D1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C537B8E0-6C58-4C07-92D6-C52FCC4AA4A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Выборка данных D2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{85B793FE-E858-430F-8C51-8FDBE525CE91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Байтеги из посылки
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{C442AD5E-EC18-45EE-A8B9-C7DC8A4051D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{E0DFAF69-0DD6-49BE-A261-FF65C58EE811}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{E6A26C34-26A5-4799-BBD5-2E8BF917D506}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{DCDB2198-0B54-4A1F-9225-570F6DDBCF19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. C1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{442D1585-7EE1-4079-B61A-77D2A4C75B6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. C2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{52355A01-2F9B-4876-A45E-8BB3E4F1E871}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. O float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B017E039-3F7C-4DC0-90C1-01A8A476F45C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{4025D5AD-C621-43FA-8CF1-AA1728C5FE61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Адрес в сети</t>
         </r>
       </text>
     </comment>
@@ -1094,12 +1537,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1123,7 +1566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1253,7 +1696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1357,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1383,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1852,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{7AC7B51D-350E-4DCD-8BCA-9EAF1A67D966}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1461,7 +1928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1539,7 +2006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1565,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1591,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1617,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1643,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1666,6 +2133,314 @@
           </rPr>
           <t xml:space="preserve">
 LDM2. Максимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{D4A7DBF4-C2EB-4AC1-A251-9D916A11A046}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{60268F24-DE6E-4500-B5BB-2176BF37BCC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{273B83C3-42AD-4095-A295-3C7158262396}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{FA78AB29-BAF2-49A5-BD92-67A4D63C33D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{80DB32F1-49C8-43D2-9124-10520C641AF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Минимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{D36A8B4C-7C37-441D-BE10-E70630AF712E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Максимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{03FFF333-EF16-429A-BBFD-99E71F7EB66B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Нижняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{29172372-0EBD-4E25-A079-D698FA768FCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Верхняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{84ECA249-D82E-4768-BF6C-E29485933A2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Целевое (середина) шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{CAE4BE37-BC5C-46E6-A654-234FF7A1DA1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Минимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{D74012D2-707F-4DDD-9901-0D47C81E3DB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Максимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{7050E5EF-9DEC-4468-A7DC-1C31CF2FC58A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Сетевой адрес</t>
         </r>
       </text>
     </comment>
@@ -1674,7 +2449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1790,23 +2565,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2088,11 +2861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,10 +2910,6 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2155,11 +2924,19 @@
       <c r="A4" s="3">
         <v>20</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7304,11 +8081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7403,76 +8180,54 @@
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>120</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7480,7 +8235,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7508,76 +8263,54 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>220</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -7585,7 +8318,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -7613,83 +8346,116 @@
       <c r="A32" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>460</v>
       </c>
@@ -11885,17 +12651,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+  <mergeCells count="33">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -11908,6 +12675,16 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11915,11 +12692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12016,38 +12793,37 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>120</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -12088,36 +12864,37 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>220</v>
       </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -12149,28 +12926,94 @@
         <v>280</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>300</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>310</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>320</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F8280-DDE4-4F81-944E-D0614EC151B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E146212-ED1E-4C77-BF05-7C5E50932C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
-    <sheet name="LW" sheetId="2" r:id="rId2"/>
-    <sheet name="RW" sheetId="1" r:id="rId3"/>
+    <sheet name="RW_Bit" sheetId="5" r:id="rId2"/>
+    <sheet name="LW" sheetId="2" r:id="rId3"/>
+    <sheet name="RW" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -339,201 +340,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Change device. Перебор девайсов ( двух LDM-ов)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ID. On|OFF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ZASI On|Off</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. On|OFF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. On|OFF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. On|OFF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. On|OFF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ex. On|OFF</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -544,7 +350,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{3E703C99-2B24-4370-88AE-CAFB9529E8C2}">
       <text>
         <r>
           <rPr>
@@ -552,8 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -562,16 +367,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM 1. Выборка данных D
-</t>
+ID. On|OFF</t>
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{64988D8E-9D6C-4FC1-ACEE-7C89BE3E7BEF}">
       <text>
         <r>
           <rPr>
@@ -579,8 +382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -589,16 +391,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. Выборка данных D1
-</t>
+ZASI On|Off</t>
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{7CBB17C5-7F55-411D-AFC4-734D09DBD442}">
       <text>
         <r>
           <rPr>
@@ -606,8 +406,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -616,15 +415,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. Выборка данных D2</t>
+LDM1. On|OFF</t>
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{997039CD-1C10-4B26-9CBD-15235B3EF3AD}">
       <text>
         <r>
           <rPr>
@@ -632,8 +430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -642,15 +439,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. D float</t>
+LDM2. On|OFF</t>
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{91B19B80-0E30-4D73-977F-A5C7726FFFDD}">
       <text>
         <r>
           <rPr>
@@ -658,8 +454,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -668,15 +463,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. D1 float</t>
+LDM3. On|OFF</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{1C68135C-C1B8-4EAD-9ACA-356203E31CC3}">
       <text>
         <r>
           <rPr>
@@ -684,8 +478,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -694,15 +487,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. D2 float</t>
+CAP. On|OFF</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{7F4BF79B-5BCD-4D48-B0CB-846433E41DBC}">
       <text>
         <r>
           <rPr>
@@ -710,8 +502,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t>Автор:</t>
         </r>
@@ -720,815 +511,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-LDM1. c1 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. c2 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. O float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. отрисовка положения кабеля в зоне</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1 Тип прибор</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Модель</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Автор:
-LDM 2. Выборка данных D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. Выборка данных D1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. Выборка данных D2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. Байтеги из посылки
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. D float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. D1 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. D2 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. C1 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. C2 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. O float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. отрисовка положения кабеля в зоне</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2 Тип прибора</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. Адрес в сети</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{5B9F63F1-2CA1-4C80-85D5-C0AD5655A80C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Автор:
-LDM 3. Выборка данных D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{3096BC96-A244-470C-8822-FA6A60C8C334}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. Выборка данных D1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C537B8E0-6C58-4C07-92D6-C52FCC4AA4A4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. Выборка данных D2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{85B793FE-E858-430F-8C51-8FDBE525CE91}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. Байтеги из посылки
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{C442AD5E-EC18-45EE-A8B9-C7DC8A4051D8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. D float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{E0DFAF69-0DD6-49BE-A261-FF65C58EE811}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. D1 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{E6A26C34-26A5-4799-BBD5-2E8BF917D506}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. D2 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{DCDB2198-0B54-4A1F-9225-570F6DDBCF19}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. C1 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{442D1585-7EE1-4079-B61A-77D2A4C75B6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. C2 float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{52355A01-2F9B-4876-A45E-8BB3E4F1E871}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. O float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. отрисовка положения кабеля в зоне</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B017E039-3F7C-4DC0-90C1-01A8A476F45C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3 Тип прибора</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{4025D5AD-C621-43FA-8CF1-AA1728C5FE61}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. Адрес в сети</t>
+Ex. On|OFF</t>
         </r>
       </text>
     </comment>
@@ -1537,6 +523,1031 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Change device. Перебор девайсов ( двух LDM-ов)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM 1. Выборка данных D
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Выборка данных D1
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Выборка данных D2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. D float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. D1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. D2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. c1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. c2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. O float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 Тип прибор</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Модель</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Автор:
+LDM 2. Выборка данных D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Выборка данных D1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Выборка данных D2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Байтеги из посылки
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. D float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. D1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. D2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. C1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. C2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. O float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Адрес в сети</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{5B9F63F1-2CA1-4C80-85D5-C0AD5655A80C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Автор:
+LDM 3. Выборка данных D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{3096BC96-A244-470C-8822-FA6A60C8C334}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Выборка данных D1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C537B8E0-6C58-4C07-92D6-C52FCC4AA4A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Выборка данных D2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{85B793FE-E858-430F-8C51-8FDBE525CE91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Байтеги из посылки
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{C442AD5E-EC18-45EE-A8B9-C7DC8A4051D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{E0DFAF69-0DD6-49BE-A261-FF65C58EE811}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{E6A26C34-26A5-4799-BBD5-2E8BF917D506}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. D2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{DCDB2198-0B54-4A1F-9225-570F6DDBCF19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. C1 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{442D1585-7EE1-4079-B61A-77D2A4C75B6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. C2 float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{52355A01-2F9B-4876-A45E-8BB3E4F1E871}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. O float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B017E039-3F7C-4DC0-90C1-01A8A476F45C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{4025D5AD-C621-43FA-8CF1-AA1728C5FE61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Адрес в сети</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
@@ -2565,7 +2576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2576,12 +2587,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2865,7 +2877,7 @@
   <dimension ref="A1:K1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,7 +2974,6 @@
       <c r="A10" s="3">
         <v>80</v>
       </c>
-      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2973,13 +2984,13 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8081,11 +8092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K886"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE5C19-BE5D-4363-BCB1-D548E08066A8}">
+  <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,14 +8138,5301 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>60</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>80</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="3">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="3">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="3">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="3">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3">
+        <v>6710</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="3">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="3">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="3">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="3">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="3">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="3">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="3">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="3">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="3">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="3">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="3">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="3">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>7270</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="3">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>7290</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="3">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="3">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="3">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="3">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="3">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="3">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="3">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="3">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="3">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="3">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="3">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="3">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="3">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="3">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="3">
+        <v>7640</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="3">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>7670</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="3">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="3">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="3">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="3">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="3">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="3">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>7810</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="3">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="3">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="3">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="3">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="3">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>7930</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="3">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="3">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="3">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="3">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="3">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="3">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="3">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="3">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="3">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="3">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="1">
+        <v>8170</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="3">
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="1">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="3">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="1">
+        <v>8210</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="3">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="1">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="3">
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="1">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="3">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="1">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="3">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="1">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="3">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="1">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="3">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="1">
+        <v>8330</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="3">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="1">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="3">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="3">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="3">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="3">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="3">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="3">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="3">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="3">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="3">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="3">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="3">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="3">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="3">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="3">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="3">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="3">
+        <v>8660</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="3">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="3">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="3">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="3">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="3">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="3">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="3">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="3">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="3">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="3">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="3">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="3">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="3"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="3"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="3"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="3"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="3"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="3"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="3"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="3"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="3"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="3"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="3"/>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="3"/>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="3"/>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="3"/>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="3"/>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="3"/>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="3"/>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="3"/>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="3"/>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="3"/>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="3"/>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="3"/>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="3"/>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="3"/>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="3"/>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="3"/>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="3"/>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="3"/>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="3"/>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="3"/>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="3"/>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="3"/>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="3"/>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="3"/>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="3"/>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="3"/>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="3"/>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="3"/>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="3"/>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="3"/>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="3"/>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="3"/>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="3"/>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="3"/>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="3"/>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="3"/>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="3"/>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="3"/>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="3"/>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="3"/>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="3"/>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="3"/>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="3"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="3"/>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="3"/>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="3"/>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="3"/>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="3"/>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="3"/>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="3"/>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="3"/>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="3"/>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="3"/>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="3"/>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="3"/>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="3"/>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="3"/>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="3"/>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="3"/>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="3"/>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="3"/>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="3"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="3"/>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="3"/>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="3"/>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="3"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="3"/>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="3"/>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="3"/>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="3"/>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="3"/>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="3"/>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="3"/>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="3"/>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="3"/>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="3"/>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="3"/>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="3"/>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="3"/>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="3"/>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="3"/>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="3"/>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="3"/>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="3"/>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="3"/>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="3"/>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="3"/>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="3"/>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3"/>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3"/>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3"/>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3"/>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3"/>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3"/>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="3"/>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3"/>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3"/>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3"/>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3"/>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3"/>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="3"/>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="3"/>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="3"/>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="3"/>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="3"/>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="3"/>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="3"/>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="3"/>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="3"/>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="3"/>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="3"/>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="3"/>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="3"/>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="3"/>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="3"/>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="3"/>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="3"/>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="3"/>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="3"/>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="3"/>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="3"/>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="3"/>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3"/>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="3"/>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3"/>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3"/>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3"/>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3"/>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3"/>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3"/>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3"/>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3"/>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3"/>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3"/>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="3"/>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3"/>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="3"/>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3"/>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3"/>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3"/>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3"/>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3"/>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3"/>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3"/>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3"/>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="3"/>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="3"/>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3"/>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3"/>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3"/>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="3"/>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="3"/>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="3"/>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="3"/>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="3"/>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="3"/>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3"/>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="3"/>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="3"/>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="3"/>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="3"/>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="3"/>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="3"/>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3"/>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3"/>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3"/>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3"/>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3"/>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3"/>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3"/>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3"/>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3"/>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3"/>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3"/>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3"/>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3"/>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3"/>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3"/>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="3"/>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="3"/>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3"/>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3"/>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3"/>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3"/>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="3"/>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3"/>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3"/>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="3"/>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="3"/>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="3"/>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="3"/>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="3"/>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="3"/>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="3"/>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3"/>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="3"/>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="3"/>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="3"/>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="3"/>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="3"/>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K886"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8170,6 +13468,7 @@
       <c r="A10" s="1">
         <v>80</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8186,10 +13485,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8228,13 +13527,13 @@
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8270,8 +13569,8 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8311,13 +13610,13 @@
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8353,8 +13652,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -8394,13 +13693,13 @@
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -12652,17 +17951,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -12675,27 +17973,28 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12793,31 +18092,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -12864,31 +18163,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -12935,31 +18234,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -12984,36 +18283,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E146212-ED1E-4C77-BF05-7C5E50932C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF3244-E4C4-4200-9F8F-EFAE73D77A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,6 +552,30 @@
           <t xml:space="preserve">
 Change device. Перебор девайсов ( двух LDM-ов)
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{D3B56250-BC44-4BC1-95D9-10D17FFE2BCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Номер текущего окна</t>
         </r>
       </text>
     </comment>
@@ -2576,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2587,13 +2611,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2984,13 +3007,6 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8141,127 +8157,46 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>60</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>80</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -13383,7 +13318,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13469,6 +13404,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -13485,10 +13421,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -13527,13 +13463,13 @@
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -13569,8 +13505,8 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -13610,13 +13546,13 @@
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -13652,8 +13588,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13693,13 +13629,13 @@
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -17951,16 +17887,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -17973,17 +17910,16 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18092,31 +18028,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -18163,31 +18099,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -18234,31 +18170,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -18283,36 +18219,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF3244-E4C4-4200-9F8F-EFAE73D77A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EA35A-B00E-4E01-95B6-4842926FBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,6 +340,164 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{6929A366-DC05-4EC4-8171-FB3F765CE982}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{4AAFB56C-4D20-466F-A50C-EC23F7C717F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+RealHi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E853B69C-4BB5-43B7-8877-B482780E5715}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+HiOn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{17528DDC-5465-4AA3-89B1-E6BC514AE648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proboy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{2D9D8032-8800-4B65-9274-F82106691282}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Set_HiOn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{83A68847-DF09-4948-92BA-E5265448342A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Set_Ust</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{CF5C6595-1D4A-476A-82B5-F59E2AF5B4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Set_CntPr</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -891,6 +1049,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{6B8CEA93-026C-4FB0-8258-49C1D1C18D3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
@@ -1229,6 +1411,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{61CAC15E-79B5-410E-9BB4-582AC9918A3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0" xr:uid="{5B9F63F1-2CA1-4C80-85D5-C0AD5655A80C}">
       <text>
         <r>
@@ -1564,6 +1770,156 @@
           </rPr>
           <t xml:space="preserve">
 LDM3. Адрес в сети</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{FB0C0E55-0368-4E48-A90B-342221800818}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{382C6A3D-B64E-426E-BE6F-0E5A92CFBAC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CurrentUst
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{2AC74964-9354-4402-A8E9-531A05BAD0F6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CurrentC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0" xr:uid="{060EAAE4-075D-4F6F-A065-AD99B6C1AC2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CurrentPr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{B20BEA7C-0E5D-4E40-8972-2A37A834FC26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАСИ Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{EF8445E5-FF9F-4C5C-B757-B596CB385A58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАСИ. Адрес в сети</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{E69C9D67-C5FE-4A3E-AEDF-2DFD25341945}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Буквы типа ZASI|IASI</t>
         </r>
       </text>
     </comment>
@@ -2479,8 +2835,87 @@
         </r>
       </text>
     </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{9877F6A4-5298-4B06-9915-3F4F33D709D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ustavka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{BB78F2FD-21FA-4418-9C75-3BA18EE941DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Prev_proboy_cnt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{67FE0697-CD7D-41A3-892E-70C3B69A543F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАСИ. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>LDM1</t>
+  </si>
+  <si>
+    <t>LDM2</t>
+  </si>
+  <si>
+    <t>LDM3</t>
+  </si>
+  <si>
+    <t>ЗАСИ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2611,10 +3046,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2897,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1342"/>
+  <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,7 +3344,7 @@
     <col min="2" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2941,12 +3376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2954,8 +3389,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>20</v>
       </c>
@@ -2963,8 +3401,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -2972,58 +3413,71 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
@@ -13317,8 +13771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13421,10 +13875,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -13463,13 +13917,13 @@
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -13478,6 +13932,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -13505,8 +13963,8 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -13546,13 +14004,13 @@
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -13561,6 +14019,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -13588,8 +14050,8 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -13629,13 +14091,13 @@
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -13644,6 +14106,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -13664,6 +14130,12 @@
       <c r="A42" s="1">
         <v>400</v>
       </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="2"/>
+      <c r="H42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -13694,6 +14166,12 @@
       <c r="A48" s="1">
         <v>460</v>
       </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -17886,18 +18364,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
+  <mergeCells count="39">
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -17910,16 +18393,17 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17928,10 +18412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18028,31 +18512,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -18099,31 +18583,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -18170,31 +18654,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -18217,38 +18701,101 @@
         <v>350</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>400</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>410</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>420</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EA35A-B00E-4E01-95B6-4842926FBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F22B7-C833-45F0-9DBA-3B5987C75CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -498,6 +498,117 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{2229215C-59A3-4F5C-944D-409BF7DF6AD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9B03C99B-E159-46BA-B488-E9B6417FC055}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Сброс длины</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{40AE8D1C-84F0-4C53-A21D-68ACE2F69545}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ид. Сброс бухты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{4FE18E5B-613D-4584-92C3-38E143A41B50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Установить длину
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{B812825D-ABAF-4931-B339-23668BBFC40D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Установить диаметр</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -713,30 +824,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{D3B56250-BC44-4BC1-95D9-10D17FFE2BCE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Номер текущего окна</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
@@ -1920,6 +2007,126 @@
           </rPr>
           <t xml:space="preserve">
 Буквы типа ZASI|IASI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{01831A0E-7BED-4095-8E50-7F602A60B265}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Длина</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{8373355C-3A93-4A76-BE1D-320821A5B7E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Длина  бухты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0" shapeId="0" xr:uid="{08C8A45C-9C9D-4039-92A6-2B73A9641527}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение бухты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{32F3BCB0-59E6-4AED-8430-27E4AB6F0532}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Скорость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{52AD582E-702C-411B-B73B-052CCCBFB54E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение диаметра</t>
         </r>
       </text>
     </comment>
@@ -2894,6 +3101,126 @@
           </rPr>
           <t xml:space="preserve">
 ЗАСИ. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{59987022-5476-4BBD-8C0A-E41902657629}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Длина  бухты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0" shapeId="0" xr:uid="{129138C3-9724-412E-BC2E-F84DF90FB304}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение бухты</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{43343D97-BF5E-4294-A4CD-0BEDBE69362F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Скорость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{388B3542-17EE-4C3B-A198-0A8FD44DA251}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{82F2FD4B-4122-4DC0-8E20-C2B8FCD19F98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Сетевой адрес</t>
         </r>
       </text>
     </comment>
@@ -3035,7 +3362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3050,6 +3377,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3334,8 +3667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,6 +3769,11 @@
       <c r="A7" s="1">
         <v>50</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -13771,8 +14109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G18"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13858,7 +14196,6 @@
         <v>80</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -14173,82 +14510,92 @@
       <c r="F48" s="6"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>620</v>
       </c>
@@ -18364,23 +18711,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="44">
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -18393,9 +18732,22 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:K32"/>
@@ -18412,10 +18764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18759,43 +19111,84 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>470</v>
       </c>
     </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>500</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>520</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="35">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311F22B7-C833-45F0-9DBA-3B5987C75CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A73EA7-2128-49C7-A569-0CB56440531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -609,6 +609,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{99ECDBFD-A9A2-4D1A-844B-A89A4B1D1FEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{16543110-2752-4E17-B07E-BBFBD59825D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ИЁ set min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{A1F866A8-FC48-494A-9AD0-37CD3A8CFCBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ИЁ set max</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{AB4EBA47-31B8-4C07-AF52-406E3CAD1790}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ИЁ set nom</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2130,6 +2222,314 @@
         </r>
       </text>
     </comment>
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{42D7FB15-1267-4583-B357-5B415B6E6480}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Текущая емкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{59F595AF-81CA-47A8-A279-5321CE65BAD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{87DBC5B4-1DC0-4AEC-A6AD-80BD6FB6D4F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{6CC25A09-F129-4A50-9A92-B3374EEAF9BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Номинальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{E29CEDA5-7386-4B1E-9C79-9DCB0E2E9B53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{DD8295CD-5EED-4F00-8A6B-69CD1922A849}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{C31A97CB-C5EE-4894-BCB6-1F359CC7A870}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Номинальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{C5FB2C04-AB2F-4C91-BEA2-8C3A222814FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Нижняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{C3BC4574-8084-492D-997A-D4A747D80F7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Верхняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{673A2390-A431-4AE8-889B-B11F54C2B957}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Целевое (середина) шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{95957653-4BCD-4B75-B130-F8F9F2BA022F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Минимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{D1EB194E-44C9-4E35-AD44-BF505A5434F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Максимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3221,6 +3621,30 @@
           </rPr>
           <t xml:space="preserve">
 ИД. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{7BE1CBDC-373A-4BA8-A6C0-F993F93D06BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИЁ. Сетевой адрес</t>
         </r>
       </text>
     </comment>
@@ -3362,7 +3786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3370,21 +3794,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3667,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,6 +4206,10 @@
       <c r="A8" s="3">
         <v>60</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -14109,8 +14540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:K52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14207,11 +14638,11 @@
         <v>100</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -14232,36 +14663,36 @@
         <v>130</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -14270,9 +14701,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -14294,15 +14725,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -14319,36 +14750,36 @@
         <v>230</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -14357,9 +14788,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -14381,15 +14812,15 @@
         <v>300</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -14406,36 +14837,36 @@
         <v>330</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -14444,9 +14875,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -14468,9 +14899,9 @@
         <v>400</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -14506,9 +14937,9 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -14530,15 +14961,15 @@
         <v>500</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -14589,11 +15020,30 @@
       <c r="A62" s="1">
         <v>600</v>
       </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>610</v>
       </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -18720,6 +19170,14 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
@@ -18742,14 +19200,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
@@ -18758,16 +19208,17 @@
     <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19133,13 +19584,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -19151,6 +19602,60 @@
         <v>520</v>
       </c>
       <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>600</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>620</v>
+      </c>
+      <c r="B64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A73EA7-2128-49C7-A569-0CB56440531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AAE3CE-42E7-4A55-BBB8-E3EDA7042F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -623,7 +623,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{16543110-2752-4E17-B07E-BBFBD59825D5}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{62C03853-5505-419B-8BDF-CACA306699E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP setAdr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{5BD7747F-AE82-44B8-BE99-3DBCB505ECBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP setSpeed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{16543110-2752-4E17-B07E-BBFBD59825D5}">
       <text>
         <r>
           <rPr>
@@ -649,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{A1F866A8-FC48-494A-9AD0-37CD3A8CFCBE}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A1F866A8-FC48-494A-9AD0-37CD3A8CFCBE}">
       <text>
         <r>
           <rPr>
@@ -675,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{AB4EBA47-31B8-4C07-AF52-406E3CAD1790}">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{AB4EBA47-31B8-4C07-AF52-406E3CAD1790}">
       <text>
         <r>
           <rPr>
@@ -698,6 +746,151 @@
           </rPr>
           <t xml:space="preserve">
 ИЁ set nom</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{5904AA9A-4593-4877-84F0-B1FAB316EAC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Дефект!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{D64B9769-52A6-48B7-982C-B0BA01D2AEEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Mode (Индикация или связь)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{A44C13D9-C44F-431A-9D4F-EE8DDA23FFFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP set Cal1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{56BA06EC-6751-4816-8AA8-AFCBBD0117CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP set Cal2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{BEF3E7A2-862F-4867-ACE4-0100B0212D30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Cal Apply1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{5EA7FE0C-60D1-46E4-AA6F-CA79DBA78C2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Cal Apply2</t>
         </r>
       </text>
     </comment>
@@ -1586,7 +1779,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-LDM2. Адрес в сети</t>
+LDM2. Модель</t>
         </r>
       </text>
     </comment>
@@ -1948,7 +2141,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-LDM3. Адрес в сети</t>
+LDM3. Модель</t>
         </r>
       </text>
     </comment>
@@ -2074,7 +2267,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-ЗАСИ. Адрес в сети</t>
+ЗАСИ. Модель</t>
         </r>
       </text>
     </comment>
@@ -2248,162 +2441,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{59F595AF-81CA-47A8-A279-5321CE65BAD8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Минимальная ёмкость</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{87DBC5B4-1DC0-4AEC-A6AD-80BD6FB6D4F5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Максимальная ёмкость</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{6CC25A09-F129-4A50-9A92-B3374EEAF9BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Номинальная ёмкость</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{E29CEDA5-7386-4B1E-9C79-9DCB0E2E9B53}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Минимальная ёмкость set</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G62" authorId="0" shapeId="0" xr:uid="{DD8295CD-5EED-4F00-8A6B-69CD1922A849}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Максимальная ёмкость set</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H62" authorId="0" shapeId="0" xr:uid="{C31A97CB-C5EE-4894-BCB6-1F359CC7A870}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Номинальная ёмкость set</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B63" authorId="0" shapeId="0" xr:uid="{C5FB2C04-AB2F-4C91-BEA2-8C3A222814FA}">
       <text>
         <r>
@@ -2527,6 +2564,428 @@
           </rPr>
           <t xml:space="preserve">
 CAP. Максимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{04E0FFD3-D335-4986-81E6-6B76FA55815C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP.Set Adr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{DA1B5850-E189-412F-9F1E-398137A16D02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Set Speed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E64" authorId="0" shapeId="0" xr:uid="{E29CEDA5-7386-4B1E-9C79-9DCB0E2E9B53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{DD8295CD-5EED-4F00-8A6B-69CD1922A849}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{C31A97CB-C5EE-4894-BCB6-1F359CC7A870}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Номинальная ёмкость set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{66A1BC0F-DCEA-4FF1-8E4B-AA85C2050DAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Adr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{0B3C309B-D5DA-4036-96BC-C62E61943327}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Speed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{59F595AF-81CA-47A8-A279-5321CE65BAD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{87DBC5B4-1DC0-4AEC-A6AD-80BD6FB6D4F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{6CC25A09-F129-4A50-9A92-B3374EEAF9BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Номинальная ёмкость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{C2C2B960-261E-47E6-BF36-FCF0FE4CBB9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Эталон1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{E053996E-DC71-4D65-BB38-EBCCBBBF9A3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP измеренная 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{2789B3EE-2517-4600-8031-0CFD09EA1FE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Эталон2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{26D87385-80B4-4C3D-B269-E73036034558}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP измеренная 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{22CEB761-36EF-4CD3-A1CA-875441203142}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{979A07C2-2469-4817-9B0C-519415127AE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Модель</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{1BDA2C64-1A14-40C7-83F0-BC2D78A80CD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА CAP</t>
         </r>
       </text>
     </comment>
@@ -3645,6 +4104,30 @@
           </rPr>
           <t xml:space="preserve">
 ИЁ. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{27F97E56-9F03-49D5-B57E-699DCFE2F366}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Скорость</t>
         </r>
       </text>
     </comment>
@@ -3786,7 +4269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3794,10 +4277,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3809,9 +4292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4094,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,14 +4687,22 @@
         <v>60</v>
       </c>
       <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -14540,8 +15028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14638,11 +15126,11 @@
         <v>100</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -14663,36 +15151,36 @@
         <v>130</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -14701,9 +15189,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -14725,15 +15213,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -14750,36 +15238,36 @@
         <v>230</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -14788,9 +15276,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -14812,15 +15300,15 @@
         <v>300</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -14837,36 +15325,36 @@
         <v>330</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -14875,9 +15363,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -14899,9 +15387,9 @@
         <v>400</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -14937,9 +15425,9 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -14961,15 +15449,15 @@
         <v>500</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -15021,111 +15509,118 @@
         <v>600</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>610</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>630</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>650</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>660</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>770</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>780</v>
       </c>
@@ -19161,7 +19656,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="D28:G28"/>
@@ -19178,34 +19702,6 @@
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19217,8 +19713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:D62"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19584,13 +20080,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -19642,9 +20138,6 @@
       <c r="A62" s="1">
         <v>600</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
@@ -19656,44 +20149,45 @@
         <v>620</v>
       </c>
       <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AAE3CE-42E7-4A55-BBB8-E3EDA7042F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EA004-14E6-43C1-8D50-6F27B4B0728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17970" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -749,7 +749,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{5904AA9A-4593-4877-84F0-B1FAB316EAC4}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{A44C13D9-C44F-431A-9D4F-EE8DDA23FFFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP set Cal1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{56BA06EC-6751-4816-8AA8-AFCBBD0117CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP set Cal2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{BEF3E7A2-862F-4867-ACE4-0100B0212D30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Cal Apply1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{5EA7FE0C-60D1-46E4-AA6F-CA79DBA78C2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Cal Apply2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{5904AA9A-4593-4877-84F0-B1FAB316EAC4}">
       <text>
         <r>
           <rPr>
@@ -774,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{D64B9769-52A6-48B7-982C-B0BA01D2AEEF}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{D64B9769-52A6-48B7-982C-B0BA01D2AEEF}">
       <text>
         <r>
           <rPr>
@@ -798,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{A44C13D9-C44F-431A-9D4F-EE8DDA23FFFB}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{FDC2FE1D-B7A4-4CB2-B4E0-94D57194581A}">
       <text>
         <r>
           <rPr>
@@ -818,79 +914,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-CAP set Cal1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{56BA06EC-6751-4816-8AA8-AFCBBD0117CF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP set Cal2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{BEF3E7A2-862F-4867-ACE4-0100B0212D30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP Cal Apply1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{5EA7FE0C-60D1-46E4-AA6F-CA79DBA78C2B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP Cal Apply2</t>
+CAP. SetAutoCal</t>
         </r>
       </text>
     </comment>
@@ -2693,6 +2717,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="H64" authorId="0" shapeId="0" xr:uid="{B30B6F0A-F6CA-4460-8615-D16E9FF8440E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Эталон1 Set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{AF293DD7-932C-4BDD-9095-D85F92A13F15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP измеренная 1 Set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J64" authorId="0" shapeId="0" xr:uid="{B22A6D5B-4462-4CF1-AF5C-C7BA37CA155F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Эталон2 Set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K64" authorId="0" shapeId="0" xr:uid="{F730009C-AE9A-42C4-9E32-7D63E3112619}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP измеренная 2 Set</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C65" authorId="0" shapeId="0" xr:uid="{66A1BC0F-DCEA-4FF1-8E4B-AA85C2050DAD}">
       <text>
         <r>
@@ -2819,7 +2939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{C2C2B960-261E-47E6-BF36-FCF0FE4CBB9D}">
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{C2C2B960-261E-47E6-BF36-FCF0FE4CBB9D}">
       <text>
         <r>
           <rPr>
@@ -2843,7 +2963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{E053996E-DC71-4D65-BB38-EBCCBBBF9A3B}">
+    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{E053996E-DC71-4D65-BB38-EBCCBBBF9A3B}">
       <text>
         <r>
           <rPr>
@@ -2867,7 +2987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{2789B3EE-2517-4600-8031-0CFD09EA1FE1}">
+    <comment ref="J65" authorId="0" shapeId="0" xr:uid="{2789B3EE-2517-4600-8031-0CFD09EA1FE1}">
       <text>
         <r>
           <rPr>
@@ -2891,7 +3011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{26D87385-80B4-4C3D-B269-E73036034558}">
+    <comment ref="K65" authorId="0" shapeId="0" xr:uid="{26D87385-80B4-4C3D-B269-E73036034558}">
       <text>
         <r>
           <rPr>
@@ -2912,6 +3032,30 @@
           </rPr>
           <t xml:space="preserve">
 CAP измеренная 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{01C38E17-CC8F-4E9E-B652-79D6F3DBCA16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP значение автокалибровки</t>
         </r>
       </text>
     </comment>
@@ -4080,54 +4224,6 @@
           </rPr>
           <t xml:space="preserve">
 ИД. Сетевой адрес</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{7BE1CBDC-373A-4BA8-A6C0-F993F93D06BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ИЁ. Сетевой адрес</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{27F97E56-9F03-49D5-B57E-699DCFE2F366}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Скорость</t>
         </r>
       </text>
     </comment>
@@ -4269,7 +4365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4277,10 +4373,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4292,6 +4388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4575,7 +4672,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,6 +4790,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4702,7 +4801,6 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -15029,7 +15127,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:D67"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15126,11 +15224,11 @@
         <v>100</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -15151,36 +15249,36 @@
         <v>130</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -15189,9 +15287,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -15213,15 +15311,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -15238,36 +15336,36 @@
         <v>230</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -15276,9 +15374,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -15300,15 +15398,15 @@
         <v>300</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -15325,36 +15423,36 @@
         <v>330</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -15363,9 +15461,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -15387,9 +15485,9 @@
         <v>400</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -15425,9 +15523,9 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -15449,15 +15547,15 @@
         <v>500</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -15529,8 +15627,12 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>630</v>
       </c>
@@ -15539,88 +15641,90 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>640</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>650</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>660</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>670</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>740</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>760</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>770</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>780</v>
       </c>
@@ -19656,38 +19760,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
+  <mergeCells count="46">
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="B32:C32"/>
@@ -19702,6 +19775,38 @@
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19713,8 +19818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20080,13 +20185,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -20148,46 +20253,46 @@
       <c r="A64" s="1">
         <v>620</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EA004-14E6-43C1-8D50-6F27B4B0728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B91FE6-6641-446C-8657-BAA9B6C90AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -2242,6 +2242,56 @@
           </rPr>
           <t xml:space="preserve">
 CurrentPr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{39D9AF6A-CABB-4440-A3C3-BFBE3116B1CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Минимильная уставка</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{12BE7210-CFDA-4CE3-9CDC-A02D3FAA27C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Максимальная уставка</t>
         </r>
       </text>
     </comment>
@@ -4365,7 +4415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4388,7 +4438,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4671,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15126,8 +15175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15495,6 +15544,10 @@
       <c r="A43" s="1">
         <v>410</v>
       </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -19760,7 +19813,41 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="B32:C32"/>
@@ -19775,38 +19862,6 @@
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19818,7 +19873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -20253,46 +20308,44 @@
       <c r="A64" s="1">
         <v>620</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B91FE6-6641-446C-8657-BAA9B6C90AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E0944-81F4-4E91-9649-B3B616EDE6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -918,6 +918,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{248F2865-DB2C-4135-9BA5-BE19EACBDBC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+calibMode
+одна точка
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{EC27D03F-B893-47D5-AE87-C1D6BF50EFAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+calibMode
+две точки</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3109,6 +3160,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{B2395B48-C6DC-4358-80B6-1D58512D748C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+re1x</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F66" authorId="0" shapeId="0" xr:uid="{4314F6D2-9204-4BDA-A236-586C84C6633B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+im1x</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H66" authorId="0" shapeId="0" xr:uid="{404D8178-4312-44E0-9E4C-A62F8A2E075D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ur</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J66" authorId="0" shapeId="0" xr:uid="{5741B5D3-6F73-46C6-85AF-11F805F81758}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+reIr</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B68" authorId="0" shapeId="0" xr:uid="{22CEB761-36EF-4CD3-A1CA-875441203142}">
       <text>
         <r>
@@ -3180,6 +3327,30 @@
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА CAP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H68" authorId="0" shapeId="0" xr:uid="{29FDC080-0F65-432A-99E8-4F8AC9B82791}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Полный вид скорости, который не влазит в шорт</t>
         </r>
       </text>
     </comment>
@@ -4721,7 +4892,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,6 +5021,8 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -15175,8 +15348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15705,6 +15878,14 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -15721,6 +15902,8 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -19813,7 +19996,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="53">
+    <mergeCell ref="H68:I68"/>
     <mergeCell ref="D68:G68"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="B35:C35"/>
@@ -19826,6 +20010,10 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E0944-81F4-4E91-9649-B3B616EDE6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB1D49-2DB5-426E-B671-3F4AF61B65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -969,6 +969,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{67F293D0-A609-46F6-8BA6-3C54C35C8EF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+флаг calibrated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -4445,6 +4469,30 @@
           </rPr>
           <t xml:space="preserve">
 ИД. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{F5E7C5F6-26B0-452A-9BAA-225A0DE2759D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес</t>
         </r>
       </text>
     </comment>
@@ -4594,10 +4642,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4892,7 +4940,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,6 +5071,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -15348,8 +15397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:I68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15446,11 +15495,11 @@
         <v>100</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -15471,36 +15520,36 @@
         <v>130</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -15509,9 +15558,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -15533,15 +15582,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -15558,36 +15607,36 @@
         <v>230</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -15596,9 +15645,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -15620,15 +15669,15 @@
         <v>300</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -15645,36 +15694,36 @@
         <v>330</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -15683,9 +15732,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -15707,9 +15756,9 @@
         <v>400</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -15718,9 +15767,9 @@
         <v>410</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -15749,9 +15798,9 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -15773,15 +15822,15 @@
         <v>500</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -15877,15 +15926,15 @@
         <v>640</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="6"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="6"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="6"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -15899,11 +15948,11 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="6"/>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -19997,6 +20046,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="D68:G68"/>
     <mergeCell ref="H32:K32"/>
@@ -20013,43 +20099,6 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20061,8 +20110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20428,13 +20477,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="6"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -20496,44 +20545,45 @@
       <c r="A64" s="1">
         <v>620</v>
       </c>
+      <c r="B64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB1D49-2DB5-426E-B671-3F4AF61B65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14391D-E587-47AD-9C0B-D42C14191A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -938,34 +938,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-calibMode
-одна точка
+switchCalibMode
+Вызывает макрос переключения режима калибровки (по 1 точке или по 2-м)
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{EC27D03F-B893-47D5-AE87-C1D6BF50EFAF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-calibMode
-две точки</t>
         </r>
       </text>
     </comment>
@@ -1003,6 +978,32 @@
     <author>Автор</author>
   </authors>
   <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{A715D978-B44F-4032-9239-B3484DC692B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP Индикация/связь</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0" xr:uid="{3E703C99-2B24-4370-88AE-CAFB9529E8C2}">
       <text>
         <r>
@@ -2914,30 +2915,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="K64" authorId="0" shapeId="0" xr:uid="{F730009C-AE9A-42C4-9E32-7D63E3112619}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP измеренная 2 Set</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C65" authorId="0" shapeId="0" xr:uid="{66A1BC0F-DCEA-4FF1-8E4B-AA85C2050DAD}">
       <text>
         <r>
@@ -4482,17 +4459,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Адрес</t>
+          <t xml:space="preserve">CAP. Сетевой адрес
+</t>
         </r>
       </text>
     </comment>
@@ -4519,7 +4487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4555,8 +4523,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4566,6 +4541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4634,7 +4615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4642,10 +4623,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4657,6 +4638,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4940,7 +4923,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,7 +5053,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -10191,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE5C19-BE5D-4363-BCB1-D548E08066A8}">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10272,6 +10255,7 @@
       <c r="A9" s="1">
         <v>70</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -15398,7 +15382,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15495,11 +15479,11 @@
         <v>100</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -15520,36 +15504,36 @@
         <v>130</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -15558,9 +15542,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -15582,15 +15566,15 @@
         <v>200</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -15607,36 +15591,36 @@
         <v>230</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -15645,9 +15629,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -15669,15 +15653,15 @@
         <v>300</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -15694,36 +15678,36 @@
         <v>330</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -15732,9 +15716,9 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -15756,9 +15740,9 @@
         <v>400</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -15767,9 +15751,9 @@
         <v>410</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -15798,9 +15782,9 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -15822,15 +15806,15 @@
         <v>500</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -15905,7 +15889,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -15926,15 +15910,15 @@
         <v>640</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="5"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -15948,11 +15932,11 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -20046,25 +20030,23 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J66:K66"/>
@@ -20081,24 +20063,26 @@
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20110,8 +20094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20477,13 +20461,13 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -20549,41 +20533,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14391D-E587-47AD-9C0B-D42C14191A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1DF44-007E-4C7E-96FD-50AF30339DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -944,6 +944,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{8F6829D0-3132-4CB3-9979-84221BE90F4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Redwill1
+CalibMode в приборе!</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G9" authorId="0" shapeId="0" xr:uid="{67F293D0-A609-46F6-8BA6-3C54C35C8EF6}">
       <text>
         <r>
@@ -2591,132 +2606,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{C5FB2C04-AB2F-4C91-BEA2-8C3A222814FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. Нижняя граница сигнализации (покраснения шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{C3BC4574-8084-492D-997A-D4A747D80F7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. Верхняя граница сигнализации (покраснения шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{673A2390-A431-4AE8-889B-B11F54C2B957}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. Целевое (середина) шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{95957653-4BCD-4B75-B130-F8F9F2BA022F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. Минимальное значение шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{D1EB194E-44C9-4E35-AD44-BF505A5434F1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-CAP. Максимальное значение шкалы</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C64" authorId="0" shapeId="0" xr:uid="{04E0FFD3-D335-4986-81E6-6B76FA55815C}">
       <text>
         <r>
@@ -4446,6 +4335,132 @@
           </rPr>
           <t xml:space="preserve">
 ИД. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{C5FB2C04-AB2F-4C91-BEA2-8C3A222814FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Нижняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{C3BC4574-8084-492D-997A-D4A747D80F7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Верхняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{673A2390-A431-4AE8-889B-B11F54C2B957}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Целевое (середина) шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{95957653-4BCD-4B75-B130-F8F9F2BA022F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Минимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{D1EB194E-44C9-4E35-AD44-BF505A5434F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+CAP. Максимальное значение шкалы</t>
         </r>
       </text>
     </comment>
@@ -4615,18 +4630,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4638,8 +4654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4922,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,7 +5067,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -10174,7 +10188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE5C19-BE5D-4363-BCB1-D548E08066A8}">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -15382,7 +15396,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15478,16 +15492,16 @@
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -15503,36 +15517,36 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15541,9 +15555,9 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -15565,15 +15579,15 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -15590,36 +15604,36 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -15628,9 +15642,9 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -15652,15 +15666,15 @@
       <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -15677,36 +15691,36 @@
       <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -15715,9 +15729,9 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -15739,10 +15753,10 @@
       <c r="A42" s="1">
         <v>400</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -15750,9 +15764,9 @@
       <c r="A43" s="1">
         <v>410</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -15781,9 +15795,9 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -15805,15 +15819,15 @@
       <c r="A52" s="1">
         <v>500</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -15871,11 +15885,6 @@
       <c r="A63" s="1">
         <v>610</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -15889,7 +15898,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="10"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -15909,15 +15918,15 @@
       <c r="A66" s="1">
         <v>640</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="4"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -15931,11 +15940,11 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -20030,26 +20039,24 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -20060,29 +20067,31 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20095,7 +20104,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+      <selection activeCell="B63" sqref="B63:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20192,31 +20201,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -20263,31 +20272,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -20334,31 +20343,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -20458,15 +20467,15 @@
       <c r="A52" s="3">
         <v>500</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -20524,6 +20533,11 @@
       <c r="A63" s="3">
         <v>610</v>
       </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -20533,41 +20547,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1DF44-007E-4C7E-96FD-50AF30339DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B79D4-1908-4BC6-AD1B-DD4305B12669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -132,6 +132,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{88B27536-05CC-4940-B22E-199A4B8E8807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
@@ -1457,6 +1481,45 @@
           </rPr>
           <t xml:space="preserve">
 LDM1. O float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{04EC029F-7ECE-45F2-AD56-AD16366A2F19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{60DCA921-1095-41F9-AA5E-13E99B397C77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_D</t>
         </r>
       </text>
     </comment>
@@ -4936,8 +4999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,6 +5054,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -15395,8 +15459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15534,6 +15598,10 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -20038,49 +20106,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
+  <mergeCells count="55">
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -20092,6 +20118,50 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20547,41 +20617,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B79D4-1908-4BC6-AD1B-DD4305B12669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAE8EE9-86D1-4A9D-9A45-E779ECE644FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,6 +260,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{6871BD36-C7FA-46D7-993D-A83E94674635}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{9592EE1C-574C-4870-9ED7-1FE67367A072}">
       <text>
         <r>
@@ -361,6 +385,30 @@
           </rPr>
           <t xml:space="preserve">
 LDM3. Очистка отображения положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{44DE9A99-5AB0-466E-8DA1-D739CCAFB022}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс</t>
         </r>
       </text>
     </comment>
@@ -1885,6 +1933,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{82F0B3C3-A491-432E-AEF7-0FB82ABEE4DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{CD347DF1-64B0-40FE-97A7-0625F3F7C393}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_D</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
@@ -2247,6 +2334,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{D29AFB2A-9C7C-403C-8C6A-849D619E3384}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{041132D3-04C5-4041-9870-0BDC72CC7ABD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_D</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
       <text>
         <r>
@@ -2446,6 +2572,31 @@
           </rPr>
           <t xml:space="preserve">
 Максимальная уставка</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{9A42FD0F-8ECC-4355-B112-B6C28C5AE406}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SetUstVal
+</t>
         </r>
       </text>
     </comment>
@@ -5000,7 +5151,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,6 +5218,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -5079,6 +5231,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -15459,8 +15612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15689,6 +15842,10 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -15776,6 +15933,10 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -15836,6 +15997,8 @@
       <c r="C43" s="6"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -20106,7 +20269,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="60">
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -20118,6 +20281,7 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
@@ -20157,11 +20321,15 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20173,7 +20341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B63" sqref="B63:F63"/>
     </sheetView>
   </sheetViews>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAE8EE9-86D1-4A9D-9A45-E779ECE644FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71B0CC-4F39-49FF-B1DC-41282E53C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,6 +1065,240 @@
     <author>Автор</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{670335FD-9384-4896-BB54-E2FC2201726B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле средний</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6CD8FED3-551F-425E-A17B-C2C161E23D1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{55912ADE-CF1A-4612-B2FD-66C035C7F504}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E7121435-B1DF-4F2E-A851-1CF5ECF260E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле средний</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{01078A3A-36AF-4868-8F84-3C9F8EC5D8FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{81276ACD-8808-4094-8089-F519F68F4B40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{25FD744D-C793-4258-9A7B-7EE9D0C0457B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле средний</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1EFE8BE6-5675-4F05-B6B7-781197B8565A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{A32A6A45-93CC-4527-8E0C-9F194DEFCDD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Реле Ось2</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C9" authorId="0" shapeId="0" xr:uid="{A715D978-B44F-4032-9239-B3484DC692B1}">
       <text>
         <r>
@@ -10406,7 +10640,7 @@
   <dimension ref="A1:K1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10456,16 +10690,25 @@
       <c r="A3" s="1">
         <v>10</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>20</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -15612,8 +15855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20270,6 +20513,54 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -20282,54 +20573,6 @@
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20341,8 +20584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20785,41 +21028,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71B0CC-4F39-49FF-B1DC-41282E53C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436ABCB-56E6-43C1-ABC2-86652AFEBFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,58 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Сброс мин-макс</t>
+Сброс мин-макс Средний
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9F8EC7E8-22E7-4929-9838-83C0009725DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс X
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{63ED16AF-6322-444B-BB4B-2620D6A3CEBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс Y
+</t>
         </r>
       </text>
     </comment>
@@ -284,6 +335,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{5DAA82B1-A66A-4EAF-A3A3-80DC396D7053}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс X
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{BD5A1EBA-76AB-41E2-93DC-0BCF350D634C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс Y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{9592EE1C-574C-4870-9ED7-1FE67367A072}">
       <text>
         <r>
@@ -409,6 +510,56 @@
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{8EFB518B-4411-42C5-8690-5B697B44685B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс X
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{229EBF1F-E528-4E28-A2C2-0EE0948F3BE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сброс мин-макс Y
+</t>
         </r>
       </text>
     </comment>
@@ -1143,6 +1294,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{C6FFB7FF-AF4D-4D6C-899F-CD619AE11E99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Круглый (0) / Плоский (1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E7121435-B1DF-4F2E-A851-1CF5ECF260E1}">
       <text>
         <r>
@@ -1221,6 +1396,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{0AFDBE73-02D7-4AA0-B7A1-7FC3CD3ED7A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Круглый (0) / Плоский (1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{25FD744D-C793-4258-9A7B-7EE9D0C0457B}">
       <text>
         <r>
@@ -1296,6 +1495,30 @@
           </rPr>
           <t xml:space="preserve">
 Реле Ось2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{E1527778-1437-4E61-9F7F-1A0B1D753928}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Круглый (0) / Плоский (1)</t>
         </r>
       </text>
     </comment>
@@ -1766,45 +1989,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{04EC029F-7ECE-45F2-AD56-AD16366A2F19}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:
-MAX_D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{60DCA921-1095-41F9-AA5E-13E99B397C77}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-MIN_D</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
@@ -1902,6 +2086,123 @@
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{04EC029F-7ECE-45F2-AD56-AD16366A2F19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{60DCA921-1095-41F9-AA5E-13E99B397C77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{1B94D7A0-4326-4074-89BD-DF34E8CC3B3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{18C1C885-AF43-4922-AC4E-3478D9DD5164}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{1D5D5F5F-FE5E-428C-95E0-D32CFD8A79E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:
+MAX_DY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{B6F84191-6E47-467D-9D56-7BAA9C20CC34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_DY</t>
         </r>
       </text>
     </comment>
@@ -5385,7 +5686,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,6 +5741,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -5453,6 +5756,8 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -5466,6 +5771,8 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -10640,7 +10947,7 @@
   <dimension ref="A1:K1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10693,6 +11000,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -10701,6 +11009,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -10709,6 +11018,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -15856,7 +16166,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K12"/>
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15994,10 +16304,6 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -16028,11 +16334,23 @@
       <c r="A19" s="1">
         <v>170</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>180</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -20512,7 +20830,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="64">
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D38:G38"/>
@@ -20529,12 +20847,18 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -20545,8 +20869,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436ABCB-56E6-43C1-ABC2-86652AFEBFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A68C8B-5A22-473C-BEE0-E71E9CCB4D56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -1522,6 +1522,231 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{0A2AF2FB-8FD3-46DE-8C45-F449CFFD6E19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1:
+Видимость канала 1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{0B100E0F-375E-4F8E-B04A-881097ECAB20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1:
+Видимость канала 2 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{9CA694D8-B457-4043-BF0E-8F7A32B0E83A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1:
+Видимость канала 3 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{408DE29E-33F9-411F-B4F1-5CBF40DF721E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2:
+Видимость канала 1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{2D66A108-A9B5-42AE-9AB6-41BAA6BE37ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2:
+Видимость канала 2 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{13B82DF3-6B50-4A51-BEAB-61D38ABD9C0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2:
+Видимость канала 3 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{DF458A2D-1D73-4D7B-981F-930FD5253D13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3:
+Видимость канала 1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{1C04C8F0-76B4-418F-9220-D52E24BE7DF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3:
+Видимость канала 2 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{55D37542-D37C-40F6-95B4-849B323EE349}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3:
+Видимость канала 3 </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C9" authorId="0" shapeId="0" xr:uid="{A715D978-B44F-4032-9239-B3484DC692B1}">
       <text>
         <r>
@@ -4334,6 +4559,422 @@
           </rPr>
           <t xml:space="preserve">
 LDM1. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{304DCBB5-4A08-40D0-81B6-567B395D2532}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 X. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{A325AE90-4045-4F76-8CE7-31C9920AC6C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 X. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{18E076A6-B505-4D48-8D15-A9133640490F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1  X. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{33A14339-EB77-4FB2-B8DB-19ACD4C1FEF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Нижняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{74EE319A-0DD2-4AA7-8748-25B644F866D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Верхняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{B2FD4A18-BAEE-4A8E-8ACA-6923F448ACF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Целевое (середина) шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{12B48512-8A07-426F-ABB3-566102EBE298}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Минимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{B09DC02B-CA09-4F2D-85F7-071FA6B4922D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Максимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{872D0440-B4D6-4924-89CF-D995F0C6CF2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 Y. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{BAB57C84-E62C-4407-B6E7-BD31A80CF8A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 Y. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{2CDD79A8-679B-4B49-BC25-96D83C02DCDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1 Y. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{D06528FC-44E7-49CC-B148-A088DD1E3997}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Нижняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{1061FD95-7A6E-4C8B-96D2-55C45FEF79B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Верхняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{C33083A0-9D29-4601-868D-6B8348C9313A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Целевое (середина) шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{617C0015-0A96-458C-8C6A-B81BE278A37F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Минимальное значение шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{F241D97F-998D-4FFE-B1F5-6F36B66DD4A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Максимальное значение шкалы Y</t>
         </r>
       </text>
     </comment>
@@ -10946,8 +11587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE5C19-BE5D-4363-BCB1-D548E08066A8}">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11024,16 +11665,25 @@
       <c r="A6" s="3">
         <v>40</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>60</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -16165,8 +16815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20831,22 +21481,42 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B17:J17"/>
@@ -20859,42 +21529,22 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20907,7 +21557,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21040,21 +21690,53 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>160</v>
       </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -21349,42 +22031,58 @@
       <c r="B64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="51">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A68C8B-5A22-473C-BEE0-E71E9CCB4D56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D567498-956E-4F3D-B5EF-2CD99BF09E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4249,6 +4249,30 @@
           </rPr>
           <t xml:space="preserve">
 Скорость</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{2FAF5B86-FCD4-4F53-BD3C-D5C125BA991A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес блока реле</t>
         </r>
       </text>
     </comment>
@@ -16815,8 +16839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21481,6 +21505,58 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -21493,58 +21569,6 @@
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21557,7 +21581,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21638,6 +21662,7 @@
       <c r="A9" s="1">
         <v>70</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -22032,13 +22057,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -22048,41 +22101,13 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D567498-956E-4F3D-B5EF-2CD99BF09E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0666D-75D1-48B1-874E-338B6DF108E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -2693,7 +2693,107 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{82F0B3C3-A491-432E-AEF7-0FB82ABEE4DE}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Модель</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{61CAC15E-79B5-410E-9BB4-582AC9918A3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{FB2376B9-44D9-4472-99BD-9E52E1D34C43}">
       <text>
         <r>
           <rPr>
@@ -2708,7 +2808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{CD347DF1-64B0-40FE-97A7-0625F3F7C393}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{DD0C01BB-22F6-4A76-A05D-612D06402F13}">
       <text>
         <r>
           <rPr>
@@ -2732,33 +2832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. отрисовка положения кабеля в зоне</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{440B8610-7C0F-4569-8C20-2676FEC508E8}">
       <text>
         <r>
           <rPr>
@@ -2768,67 +2842,71 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
+          <t>Автор:
+MAX_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{6A0FF86B-425E-4556-94A8-4901AD7E1946}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-LDM2 Тип прибора</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM2. Модель</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{61CAC15E-79B5-410E-9BB4-582AC9918A3E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">
+MIN_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{2D4EFC96-5AF7-4853-9BC9-3F9F3D2A9B05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-БУКВЫ ТИПА ПРИБОРА LDM</t>
+          <t>Автор:
+MAX_DY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{1F4742A5-D748-4A8B-B853-8C8DDD6BD055}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_DY</t>
         </r>
       </text>
     </comment>
@@ -3094,7 +3172,107 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{D29AFB2A-9C7C-403C-8C6A-849D619E3384}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. отрисовка положения кабеля в зоне</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B017E039-3F7C-4DC0-90C1-01A8A476F45C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Тип прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{4025D5AD-C621-43FA-8CF1-AA1728C5FE61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Модель</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{FB0C0E55-0368-4E48-A90B-342221800818}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+БУКВЫ ТИПА ПРИБОРА LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{A25C97AC-9443-42A9-882E-7F88FD5C7976}">
       <text>
         <r>
           <rPr>
@@ -3109,7 +3287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{041132D3-04C5-4041-9870-0BDC72CC7ABD}">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{53A7B224-AF2D-407F-B362-EECA31342001}">
       <text>
         <r>
           <rPr>
@@ -3133,33 +3311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{79D54371-C840-4485-B8A7-591BF73AD058}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. отрисовка положения кабеля в зоне</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B017E039-3F7C-4DC0-90C1-01A8A476F45C}">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{DA56AA25-CEC1-410B-96F2-77566344150D}">
       <text>
         <r>
           <rPr>
@@ -3169,67 +3321,71 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
+          <t>Автор:
+MAX_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{7BDFFB8B-A6C1-410C-B2B4-FE6E1591CE11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-LDM3 Тип прибора</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{4025D5AD-C621-43FA-8CF1-AA1728C5FE61}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM3. Модель</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{FB0C0E55-0368-4E48-A90B-342221800818}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">
+MIN_DX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{57035B82-D632-47B3-A945-9F9E75D45BF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-БУКВЫ ТИПА ПРИБОРА LDM</t>
+          <t>Автор:
+MAX_DY</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{F03B70C3-D1B5-4DB5-959D-B8F9678ED071}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN_DY</t>
         </r>
       </text>
     </comment>
@@ -5286,6 +5442,422 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{656D5ECB-F3F0-48D4-8CC3-04326C0F2D64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 X. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{3982CC5F-70EE-4767-8E9C-5E2B06BBD0BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 X. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{BCC4FDF4-F510-4512-B87B-D1C2B54C94AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2  X. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{3FC50B40-1957-4DD5-B37C-7B2236538182}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Нижняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{35437B5D-52E1-4791-8DDD-573BC1FCF009}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Верхняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{E04F5AFD-8536-4A33-B7EA-620230823315}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Целевое (середина) шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{BA87692C-3629-4583-AEEF-CEDD04BD469E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Минимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{01D34BD8-7BF0-4BFE-863C-F4A147A74FC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Максимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{F4586DBD-6FE4-4ACB-B890-37F0F32CA50D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 Y. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{AE25EFBC-5376-45F6-8D40-0D70226563D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 Y. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{4D6D9C84-3451-4005-9E5B-0C94885F957B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2 Y. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{7878E9FF-B0C5-416C-BCE3-E04455B29F12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Нижняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{CCE627F8-414A-433D-BBD9-5D2A53975605}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Верхняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{C76CFEB5-FD23-4A59-B8EF-4BB3EC6884DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Целевое (середина) шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{0FB3C336-A367-40DC-B690-65FA34F6ACBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Минимальное значение шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{14FC0BBD-36A7-4499-971A-9890487E3570}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM2. Максимальное значение шкалы Y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B32" authorId="0" shapeId="0" xr:uid="{60268F24-DE6E-4500-B5BB-2176BF37BCC7}">
       <text>
         <r>
@@ -5567,6 +6139,422 @@
           </rPr>
           <t xml:space="preserve">
 LDM3. Сетевой адрес</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{10626B5B-A5A7-4BE6-85DA-E5ABC80AB6F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 X. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{4EA32327-225E-43C8-8F40-D189990E81FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 X. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{46AFABD7-67E0-4B16-B6CC-91264271510D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3  X. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{028DD021-2BE1-4D6F-8AB7-6695A699D276}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Нижняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{F9B9285F-FD0E-4F8D-A72A-B2335E5BA5A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Верхняя граница сигнализации (покраснения шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{2BB120A3-B17F-42CA-B5EE-6E149F3FB46B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Целевое (середина) шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{05FA8F37-01D6-4126-9FF1-73C5D3AAB67E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Минимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0" shapeId="0" xr:uid="{8824F885-F249-4207-A430-6E63E0F47474}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Максимальное значение шкалы X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{4A6ABFB5-C668-4A6B-98CA-2F6737790D40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Y. Нижний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{7DF2AEC4-CA6E-4CE5-A01D-6EE10D047B4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Y. Верхний предел для сигнализации (Моргания) циферок)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{DD3C9021-A232-45CC-86F0-EAB35991D45F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3 Y. Номинал Диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{39220A24-FD8B-4A1E-B669-B8BB863C1577}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Нижняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{5BD57891-47C7-4DA2-9B2A-0833A742E711}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Верхняя граница сигнализации (покраснения шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{AA0F5F59-BFDE-4748-B6C2-7E3D51C301E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Целевое (середина) шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="0" shapeId="0" xr:uid="{F01E57C1-3FDD-458C-98E9-4E32D3E515DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Минимальное значение шкалы Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{875A8CC7-896F-4F25-A9BD-F894A54AC80B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM3. Максимальное значение шкалы Y</t>
         </r>
       </text>
     </comment>
@@ -11611,8 +12599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAE5C19-BE5D-4363-BCB1-D548E08066A8}">
   <dimension ref="A1:K1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16839,8 +17827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17077,10 +18065,6 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -17111,11 +18095,23 @@
       <c r="A29" s="1">
         <v>270</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>280</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -17168,10 +18164,6 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -17202,11 +18194,23 @@
       <c r="A39" s="1">
         <v>370</v>
       </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>380</v>
       </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -21504,23 +22508,47 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
+  <mergeCells count="72">
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B17:J17"/>
@@ -21533,42 +22561,26 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21580,8 +22592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21818,21 +22830,53 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>240</v>
       </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>260</v>
       </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -21889,21 +22933,53 @@
       <c r="A35" s="1">
         <v>330</v>
       </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>340</v>
       </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>360</v>
       </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -22056,42 +23132,46 @@
       <c r="B64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
+  <mergeCells count="83">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -22101,13 +23181,41 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0666D-75D1-48B1-874E-338B6DF108E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F58E4F-E043-424A-9989-3B43D1618AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -1206,6 +1206,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{A7C38BA5-274A-4D67-B478-0E245BCE6DE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Тригер на 0.1 м
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -3707,6 +3732,30 @@
           </rPr>
           <t xml:space="preserve">
 Установить значение диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{03518870-E205-4A46-BCFF-1C017417E881}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Предыдущая длина</t>
         </r>
       </text>
     </comment>
@@ -7338,8 +7387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7516,82 +7565,83 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>300</v>
       </c>
@@ -17827,8 +17877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18304,6 +18354,8 @@
       <c r="A53" s="1">
         <v>510</v>
       </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -22508,7 +22560,64 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="73">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -22525,62 +22634,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22592,7 +22645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -23133,45 +23186,41 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -23181,41 +23230,45 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F58E4F-E043-424A-9989-3B43D1618AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BED857-8568-47BC-B07E-96D4B0A9564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -832,6 +832,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{B52FF2BB-F300-4BC9-8A77-2E3BFB98CA6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Фиксируем первую длину (для связи графика диаметра по длине)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{99ECDBFD-A9A2-4D1A-844B-A89A4B1D1FEF}">
       <text>
         <r>
@@ -3759,6 +3784,103 @@
         </r>
       </text>
     </comment>
+    <comment ref="D53" authorId="0" shapeId="0" xr:uid="{C1B50E0E-9878-4B2F-B709-42DD0977873D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Метка наблюдения</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0" shapeId="0" xr:uid="{952C0EFF-971D-4E6C-84C6-B59836198B3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Левая граница графика Х</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{E482EDF0-B2E7-4D15-BF7D-18C678D4085F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Правая граница графика Х</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{36719F9C-410E-4252-909D-7A3ADB7758C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Первая длина (после включения)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B62" authorId="0" shapeId="0" xr:uid="{42D7FB15-1267-4583-B357-5B415B6E6480}">
       <text>
         <r>
@@ -4477,7 +4599,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Адрес блока реле</t>
+Адрес блока реле 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{81B00A90-E2FE-448C-BC14-E11CAAF13A24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес блока реле 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{554D5DE9-8417-496E-84DB-6CD7FC6C8247}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес блока реле 3</t>
         </r>
       </text>
     </comment>
@@ -6762,6 +6932,30 @@
           </rPr>
           <t xml:space="preserve">
 Установить значение диаметра</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{3572CFFA-D973-4AB6-817C-72630E8A87F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Разрешение графика, см</t>
         </r>
       </text>
     </comment>
@@ -7387,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,6 +7697,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -17877,8 +18072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18356,6 +18551,14 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -22560,17 +22763,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+  <mergeCells count="77">
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
@@ -22603,6 +22798,7 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
@@ -22613,11 +22809,23 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H68:I68"/>
@@ -22633,7 +22841,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22645,8 +22852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22728,6 +22935,8 @@
         <v>70</v>
       </c>
       <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -23121,6 +23330,8 @@
       <c r="A53" s="3">
         <v>510</v>
       </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -23185,12 +23396,7 @@
       <c r="B64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H52:I52"/>
+  <mergeCells count="84">
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
@@ -23264,11 +23470,17 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BED857-8568-47BC-B07E-96D4B0A9564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B09E2-659B-469F-880C-BD478F7BDD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -1231,6 +1231,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{122C285E-9CA2-4211-AA76-6B4252E4F6AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError RELE1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{0DDBB93B-0EFB-4BEF-B6F5-4C84CC4F06C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError RELE2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{236F115D-4280-47E1-A590-57DA463945EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NetworError RELE3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B22" authorId="0" shapeId="0" xr:uid="{A7C38BA5-274A-4D67-B478-0E245BCE6DE5}">
       <text>
         <r>
@@ -2001,6 +2043,168 @@
     <author>Автор</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{83ED023E-E1B8-4638-880C-20FCDC47456F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 1 current byte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{343224C0-0238-45F8-82DB-BFE5B527007C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 2 current byte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{648934DA-C485-4B54-B84D-594233D1EBFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 3 current byte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{0F2CF1B3-81A2-4900-ADFC-7AE808E7FB81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 1 inModule Byte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{7C444AC9-F271-4F9F-BE07-D7DBE00A4757}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 2  inModule Byte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{B84F9459-DD6F-4DFA-B263-12078358F178}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Rele 3  inModule Byte
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
@@ -7581,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7739,16 +7943,19 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>120</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -18072,8 +18279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:L122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18123,11 +18330,17 @@
       <c r="A3" s="1">
         <v>10</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -22770,7 +22983,16 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="B29:C29"/>
@@ -22788,6 +23010,7 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -22798,7 +23021,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J35:K35"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
@@ -22811,15 +23033,6 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:J37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -22852,7 +23065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B09E2-659B-469F-880C-BD478F7BDD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F17CBE1-F182-47D3-86C4-40AEF985D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -207,6 +207,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{F0ECCB6C-E7D1-4D3A-AFCC-0FC91781A484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Чтение из  прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{03805FDF-9A5F-46C6-B7C9-462B49D3A7E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Запись в прибор</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
@@ -385,6 +435,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{05859DC8-D8CD-4C3C-A4E7-DA0F4BE4E572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Чтение из  прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{3BB6B8A4-74F7-4E85-A50E-5680C23F87D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Запись в прибор</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{9592EE1C-574C-4870-9ED7-1FE67367A072}">
       <text>
         <r>
@@ -560,6 +660,56 @@
           <t xml:space="preserve">
 Сброс мин-макс Y
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{ADA5FC1A-A0C0-4326-9E80-25F7C58628C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Чтение из  прибора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{DA17AA61-18E4-451B-A4E0-EC908CC6B302}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ОБъемный (0) / Плоский (1)
+Запись в прибор</t>
         </r>
       </text>
     </comment>
@@ -1406,7 +1556,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Круглый (0) / Плоский (1)</t>
+Круглый (0) / Прямоугольный (1)</t>
         </r>
       </text>
     </comment>
@@ -1508,7 +1658,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Круглый (0) / Плоский (1)</t>
+Круглый (0) / Прямоугольный (1)</t>
         </r>
       </text>
     </comment>
@@ -1610,7 +1760,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Круглый (0) / Плоский (1)</t>
+Круглый (0) / Прямоугольный (1)</t>
         </r>
       </text>
     </comment>
@@ -7785,8 +7935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7843,6 +7993,8 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -7858,6 +8010,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" t="s">
         <v>1</v>
       </c>
@@ -7873,6 +8027,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -13052,7 +13208,7 @@
   <dimension ref="A1:K1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18279,7 +18435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F17CBE1-F182-47D3-86C4-40AEF985D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0976234-26FD-473B-A277-C1DAEEB0A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -140,16 +140,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс Средний
@@ -165,16 +167,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс X
@@ -190,16 +194,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс Y
@@ -215,16 +221,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -240,16 +248,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -369,16 +379,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс</t>
@@ -393,16 +405,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс X
@@ -418,16 +432,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс Y
@@ -443,16 +459,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -468,16 +486,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -597,16 +617,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс</t>
@@ -621,16 +643,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс X
@@ -646,16 +670,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Сброс мин-макс Y
@@ -671,16 +697,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -696,16 +724,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ОБъемный (0) / Плоский (1)
@@ -721,7 +751,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError</t>
         </r>
@@ -735,16 +766,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 RealHi</t>
@@ -759,16 +792,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 HiOn</t>
@@ -783,16 +818,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Proboy</t>
@@ -807,16 +844,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Set_HiOn</t>
@@ -831,16 +870,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Set_Ust</t>
@@ -855,16 +896,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Set_CntPr</t>
@@ -879,7 +922,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError</t>
         </r>
@@ -893,16 +937,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ИД. Сброс длины</t>
@@ -917,16 +963,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Ид. Сброс бухты</t>
@@ -941,16 +989,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ИД. Установить длину
@@ -966,16 +1016,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ИД. Установить диаметр</t>
@@ -990,16 +1042,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ИД. Фиксируем первую длину (для связи графика диаметра по длине)
@@ -1007,6 +1061,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{27F1124B-E43F-45A7-BA37-B5D62F7C1795}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Отправить поправку
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{99ECDBFD-A9A2-4D1A-844B-A89A4B1D1FEF}">
       <text>
         <r>
@@ -1015,7 +1096,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError</t>
         </r>
@@ -1029,16 +1111,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP setAdr</t>
@@ -1053,16 +1137,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP setSpeed</t>
@@ -1155,16 +1241,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP set Cal1</t>
@@ -1179,16 +1267,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP set Cal2</t>
@@ -1203,16 +1293,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Cal Apply1</t>
@@ -1227,16 +1319,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Cal Apply2</t>
@@ -1251,16 +1345,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Дефект!
@@ -1276,16 +1372,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Mode (Индикация или связь)</t>
@@ -1300,16 +1398,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. SetAutoCal</t>
@@ -1324,16 +1424,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 switchCalibMode
@@ -1350,7 +1452,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Redwill1
 CalibMode в приборе!</t>
@@ -1365,16 +1468,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 флаг calibrated</t>
@@ -1389,7 +1494,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError RELE1</t>
         </r>
@@ -1403,7 +1509,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError RELE2</t>
         </r>
@@ -1417,7 +1524,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>NetworError RELE3</t>
         </r>
@@ -1431,16 +1539,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Тригер на 0.1 м
@@ -1544,16 +1654,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Круглый (0) / Прямоугольный (1)</t>
@@ -1646,16 +1758,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Круглый (0) / Прямоугольный (1)</t>
@@ -1748,16 +1862,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Круглый (0) / Прямоугольный (1)</t>
@@ -1772,16 +1888,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1:
@@ -1797,16 +1915,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1:
@@ -1822,16 +1942,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1:
@@ -1847,16 +1969,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2:
@@ -1872,16 +1996,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2:
@@ -1897,16 +2023,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2:
@@ -1922,16 +2050,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3:
@@ -1947,16 +2077,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3:
@@ -1972,16 +2104,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3:
@@ -2023,16 +2157,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ID. On|OFF</t>
@@ -2047,16 +2183,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ZASI On|Off</t>
@@ -2071,16 +2209,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1. On|OFF</t>
@@ -2095,16 +2235,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2. On|OFF</t>
@@ -2119,16 +2261,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3. On|OFF</t>
@@ -2143,16 +2287,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. On|OFF</t>
@@ -2167,16 +2313,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Ex. On|OFF</t>
@@ -2652,16 +2800,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1 Тип прибор</t>
@@ -2702,16 +2852,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА LDM</t>
@@ -2726,7 +2878,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_D</t>
@@ -2741,16 +2894,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_D</t>
@@ -2765,7 +2920,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DX</t>
@@ -2780,16 +2936,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DX</t>
@@ -2804,7 +2962,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DY</t>
@@ -2819,16 +2978,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DY</t>
@@ -3131,16 +3292,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2 Тип прибора</t>
@@ -3181,16 +3344,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА LDM</t>
@@ -3205,7 +3370,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_D</t>
@@ -3220,16 +3386,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_D</t>
@@ -3244,7 +3412,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DX</t>
@@ -3259,16 +3428,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DX</t>
@@ -3283,7 +3454,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DY</t>
@@ -3298,16 +3470,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DY</t>
@@ -3610,16 +3784,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3 Тип прибора</t>
@@ -3660,16 +3836,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА LDM</t>
@@ -3684,7 +3862,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_D</t>
@@ -3699,16 +3878,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_D</t>
@@ -3723,7 +3904,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DX</t>
@@ -3738,16 +3920,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DX</t>
@@ -3762,7 +3946,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Автор:
 MAX_DY</t>
@@ -3777,16 +3962,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 MIN_DY</t>
@@ -3801,7 +3988,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">CurrentUst
 </t>
@@ -3815,7 +4003,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>CurrentC</t>
         </r>
@@ -3829,16 +4018,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CurrentPr</t>
@@ -3863,7 +4054,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Минимильная уставка</t>
@@ -3888,7 +4080,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Максимальная уставка</t>
@@ -3903,16 +4096,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 SetUstVal
@@ -3928,16 +4123,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ЗАСИ Тип прибора</t>
@@ -3978,16 +4175,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Буквы типа ZASI|IASI</t>
@@ -4002,16 +4201,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Длина</t>
@@ -4026,16 +4227,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Длина  бухты</t>
@@ -4050,19 +4253,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Установить значение бухты</t>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение бухты чтение</t>
         </r>
       </text>
     </comment>
@@ -4074,16 +4279,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Скорость</t>
@@ -4098,19 +4305,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Установить значение диаметра</t>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение бухты запись</t>
         </r>
       </text>
     </comment>
@@ -4122,16 +4331,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Предыдущая длина</t>
@@ -4146,16 +4357,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Метка наблюдения</t>
@@ -4170,16 +4383,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Левая граница графика Х</t>
@@ -4194,16 +4409,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Правая граница графика Х</t>
@@ -4218,16 +4435,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Первая длина (после включения)
@@ -4235,6 +4454,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{0C3205F3-483B-41F1-9040-C05C398E5816}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Поправка из рецепта float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{5AAFB7ED-5D57-4C64-ADAB-D9E3917D3EE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Поправка в приборе
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B62" authorId="0" shapeId="0" xr:uid="{42D7FB15-1267-4583-B357-5B415B6E6480}">
       <text>
         <r>
@@ -4269,16 +4541,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP.Set Adr</t>
@@ -4293,16 +4567,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. Set Speed</t>
@@ -4395,16 +4671,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Эталон1 Set</t>
@@ -4419,16 +4697,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP измеренная 1 Set</t>
@@ -4443,16 +4723,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Эталон2 Set</t>
@@ -4467,16 +4749,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. Adr</t>
@@ -4491,16 +4775,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. Speed</t>
@@ -4593,16 +4879,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Эталон1</t>
@@ -4617,16 +4905,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP измеренная 1</t>
@@ -4641,16 +4931,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Эталон2</t>
@@ -4665,16 +4957,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP измеренная 2</t>
@@ -4689,16 +4983,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP значение автокалибровки</t>
@@ -4713,16 +5009,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 re1x</t>
@@ -4737,16 +5035,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 im1x</t>
@@ -4761,16 +5061,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ur</t>
@@ -4785,16 +5087,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 reIr</t>
@@ -4809,16 +5113,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP Тип прибора</t>
@@ -4859,16 +5165,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 БУКВЫ ТИПА ПРИБОРА CAP</t>
@@ -4883,16 +5191,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Полный вид скорости, который не влазит в шорт</t>
@@ -4917,16 +5227,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Скорость</t>
@@ -4941,16 +5253,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Адрес блока реле 1</t>
@@ -4965,16 +5279,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Адрес блока реле 2</t>
@@ -4989,16 +5305,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Адрес блока реле 3</t>
@@ -5299,16 +5617,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM1. Сетевой адрес</t>
@@ -5999,16 +6319,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM2. Сетевой адрес</t>
@@ -6699,16 +7021,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 LDM3. Сетевой адрес</t>
@@ -7139,7 +7463,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Ustavka</t>
         </r>
@@ -7153,16 +7478,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Prev_proboy_cnt</t>
@@ -7177,16 +7504,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ЗАСИ. Сетевой адрес</t>
@@ -7201,16 +7530,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Длина  бухты</t>
@@ -7225,16 +7556,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Установить значение бухты</t>
@@ -7249,16 +7582,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Скорость</t>
@@ -7273,16 +7608,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Установить значение диаметра</t>
@@ -7297,16 +7634,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Разрешение графика, см</t>
@@ -7321,16 +7660,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 ИД. Сетевой адрес</t>
@@ -7371,16 +7712,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. Верхняя граница сигнализации (покраснения шкалы</t>
@@ -7421,16 +7764,18 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 CAP. Минимальное значение шкалы</t>
@@ -7471,7 +7816,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">CAP. Сетевой адрес
 </t>
@@ -7501,7 +7847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7523,19 +7869,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7629,12 +7962,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7653,6 +7986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7935,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8058,6 +8392,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -18435,8 +18770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18933,11 +19268,15 @@
       <c r="A54" s="1">
         <v>520</v>
       </c>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>530</v>
       </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -23132,7 +23471,69 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B32:C32"/>
@@ -23149,67 +23550,6 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23766,79 +24106,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -23850,6 +24117,79 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0976234-26FD-473B-A277-C1DAEEB0A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D4BCE-B4C1-454F-8243-DCE132D189F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7968,6 +7968,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7986,7 +7987,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -18771,7 +18771,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:D55"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18873,16 +18873,16 @@
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -18898,37 +18898,37 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -18936,32 +18936,32 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>170</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>180</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -18972,16 +18972,16 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -18997,37 +18997,37 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -19035,32 +19035,32 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>280</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -19071,16 +19071,16 @@
       <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -19096,37 +19096,37 @@
       <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -19134,32 +19134,32 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>370</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>380</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -19170,10 +19170,10 @@
       <c r="A42" s="1">
         <v>400</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -19181,12 +19181,12 @@
       <c r="A43" s="1">
         <v>410</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -19214,10 +19214,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -19238,45 +19238,46 @@
       <c r="A52" s="1">
         <v>500</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>510</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>520</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>530</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -19351,16 +19352,16 @@
       <c r="A66" s="1">
         <v>640</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -19373,12 +19374,12 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -23471,7 +23472,70 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="79">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H22:K22"/>
@@ -23488,68 +23552,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23662,31 +23664,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -23698,53 +23700,53 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>160</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -23765,31 +23767,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -23801,53 +23803,53 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>240</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>260</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -23868,31 +23870,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -23904,53 +23906,53 @@
       <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>340</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>360</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -24024,23 +24026,23 @@
       <c r="A52" s="3">
         <v>500</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>510</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -24106,6 +24108,79 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -24117,79 +24192,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D4BCE-B4C1-454F-8243-DCE132D189F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F3075-C71E-498B-8502-76036EFCCD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4297,29 +4297,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{52AD582E-702C-411B-B73B-052CCCBFB54E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Установить значение бухты запись</t>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{5AAFB7ED-5D57-4C64-ADAB-D9E3917D3EE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Поправка в приборе
+</t>
         </r>
       </text>
     </comment>
@@ -4454,7 +4455,82 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{0C3205F3-483B-41F1-9040-C05C398E5816}">
+    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{E3D0E92E-33CE-466C-9183-2DE38CCC3DED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Расстояние между точками на графике
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{2336913F-4EB9-4D8C-B361-0C60AEEC4E71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Диаметр какой-то…хз</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{52AD582E-702C-411B-B73B-052CCCBFB54E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Установить значение бухты запись</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{0C3205F3-483B-41F1-9040-C05C398E5816}">
       <text>
         <r>
           <rPr>
@@ -4477,33 +4553,6 @@
           </rPr>
           <t xml:space="preserve">
 Поправка из рецепта float</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{5AAFB7ED-5D57-4C64-ADAB-D9E3917D3EE2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Поправка в приборе
-</t>
         </r>
       </text>
     </comment>
@@ -7847,7 +7896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7876,6 +7925,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7962,7 +8024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7987,6 +8049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -18771,7 +18834,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19268,6 +19331,8 @@
       <c r="A54" s="1">
         <v>520</v>
       </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -19275,9 +19340,9 @@
         <v>530</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -23473,6 +23538,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B32:C32"/>
@@ -23489,69 +23617,6 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24108,79 +24173,6 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -24192,6 +24184,79 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F3075-C71E-498B-8502-76036EFCCD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0CCBE-9AE3-4CFA-8702-3CD0C2495288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5255,6 +5255,55 @@
           </rPr>
           <t xml:space="preserve">
 Полный вид скорости, который не влазит в шорт</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{136C83CA-BE20-445F-AF5D-FB4CCE4FC3F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Номер окра из конфигурации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{919E6EE3-EACA-44C9-B13B-772B731E28A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес обратной записи для номера окна из конфигурации (хз что это)
+</t>
         </r>
       </text>
     </comment>
@@ -8024,7 +8073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8049,7 +8098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -18833,8 +18881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19331,8 +19379,8 @@
       <c r="A54" s="1">
         <v>520</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -19586,82 +19634,83 @@
         <v>940</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>960</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>970</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>980</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>990</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1010</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1020</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1030</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1040</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1060</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1070</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1080</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1090</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1100</v>
       </c>
@@ -23538,13 +23587,55 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
@@ -23561,62 +23652,20 @@
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23628,8 +23677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24173,6 +24222,79 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -24184,79 +24306,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Общий проект/Карта регистров.xlsx
+++ b/Общий проект/Карта регистров.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A0CCBE-9AE3-4CFA-8702-3CD0C2495288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75651DD5-5E76-47F3-ADF7-6623C9869570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,6 +213,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{6256C122-24EE-4851-904A-5634F0E51E9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Влк/выкл Логгирование
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J3" authorId="0" shapeId="0" xr:uid="{F0ECCB6C-E7D1-4D3A-AFCC-0FC91781A484}">
       <text>
         <r>
@@ -451,6 +478,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{C78EB702-C5E7-4C74-9AFF-0366A6C9858A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Влк/выкл Логгирование
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J4" authorId="0" shapeId="0" xr:uid="{05859DC8-D8CD-4C3C-A4E7-DA0F4BE4E572}">
       <text>
         <r>
@@ -689,6 +743,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{AE4FB954-9F0F-4FF0-9E3F-4B5B0BC78CE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Влк/выкл Логгирование
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J5" authorId="0" shapeId="0" xr:uid="{ADA5FC1A-A0C0-4326-9E80-25F7C58628C9}">
       <text>
         <r>
@@ -1085,6 +1166,32 @@
           <t xml:space="preserve">
 ИД. Отправить поправку
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{2883CCC8-6D1E-4603-A5BA-77470CC68AEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ИД. Сброс графика LDM_ID</t>
         </r>
       </text>
     </comment>
@@ -1486,6 +1593,149 @@
         </r>
       </text>
     </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{937F5BD9-0BF0-45D9-8CAF-B1B410A34213}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Влк/выкл Логгирование
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{1F666401-136D-4C35-A225-BCA48A917F10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Авто
+Показать Точка 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{78DAA6FB-D6DA-4740-8926-B23455CD0982}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Авто
+Показать Точка 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{69FE627A-F71B-42F4-AAC5-EEE2034C82EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Авто
+Показать %</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{38461934-4971-4A68-85F9-A2BA7EF77B0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Авто
+ПоказатькВ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{B85A5710-969F-4EF3-93DD-84E208B5F2D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+отправить калибр. параметр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{66B4BE6B-2FCE-454D-82BA-F15581B7E78A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Нажата кнопка "Следующий шаг"</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B12" authorId="0" shapeId="0" xr:uid="{122C285E-9CA2-4211-AA76-6B4252E4F6AC}">
       <text>
         <r>
@@ -1555,6 +1805,30 @@
           <t xml:space="preserve">
 Тригер на 0.1 м
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{BCCBC4D8-C083-40F2-AF1F-2E21A672C7AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Влк/выкл Логгирование LDM-ID</t>
         </r>
       </text>
     </comment>
@@ -1672,6 +1946,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{C8D2860A-263D-4F6F-A0D1-F970F3A1696E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сигнализация</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{E7121435-B1DF-4F2E-A851-1CF5ECF260E1}">
       <text>
         <r>
@@ -1776,6 +2076,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{5F32298B-380D-493D-97B9-94B95356F218}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сигнализация</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{25FD744D-C793-4258-9A7B-7EE9D0C0457B}">
       <text>
         <r>
@@ -1877,6 +2203,32 @@
           </rPr>
           <t xml:space="preserve">
 Круглый (0) / Прямоугольный (1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{D48657C2-8A80-47F3-B992-0E2D726CFA6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сигнализация</t>
         </r>
       </text>
     </comment>
@@ -2503,6 +2855,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{136C83CA-BE20-445F-AF5D-FB4CCE4FC3F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Номер окра из конфигурации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{8BE5C535-B9FA-4ED3-8DA8-3D5C4375097E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Регистр, куда пихается номер окна для срабатывания триггера
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
@@ -4115,6 +4516,74 @@
         </r>
       </text>
     </comment>
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{2823ACD1-3375-4CFE-B061-659590839D71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Прогресс калибровки 0-3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0" shapeId="0" xr:uid="{4A7AB40C-F95B-4BB5-A06D-5A6329791D8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Параметр на отправку</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{3ECB27A1-FEB1-43D7-BBE7-E7DCD7E1C1D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор
+параметр из прибора</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0" shapeId="0" xr:uid="{B20BEA7C-0E5D-4E40-8972-2A37A834FC26}">
       <text>
         <r>
@@ -4190,6 +4659,32 @@
           </rPr>
           <t xml:space="preserve">
 Буквы типа ZASI|IASI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{1F6FDD0B-D5E6-48AA-97B2-358B3D49AFE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ЗАСИ. Модификация М</t>
         </r>
       </text>
     </comment>
@@ -5258,7 +5753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{136C83CA-BE20-445F-AF5D-FB4CCE4FC3F2}">
+    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{58696DA4-35C9-4752-9165-157E61906AE3}">
       <text>
         <r>
           <rPr>
@@ -5278,11 +5773,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Номер окра из конфигурации</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{919E6EE3-EACA-44C9-B13B-772B731E28A6}">
+Фамилия оператора</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{8A047637-17BE-46F7-B700-D640AA517F24}">
       <text>
         <r>
           <rPr>
@@ -5302,8 +5797,79 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Адрес обратной записи для номера окна из конфигурации (хз что это)
-</t>
+LEN для лога</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D103" authorId="0" shapeId="0" xr:uid="{C130ECE7-7D63-4D41-A368-B95268ECC996}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+D для лога</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F103" authorId="0" shapeId="0" xr:uid="{F80CB7D1-EA8D-4A63-87F2-4AED903A5A21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dx для лога</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H103" authorId="0" shapeId="0" xr:uid="{65B42B56-8113-4C9A-A18F-D988DD0A8B2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dy для лога</t>
         </r>
       </text>
     </comment>
@@ -7927,7 +8493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>LDM1</t>
   </si>
@@ -7939,6 +8505,21 @@
   </si>
   <si>
     <t>ЗАСИ</t>
+  </si>
+  <si>
+    <t>ИД</t>
+  </si>
+  <si>
+    <t>CAP1</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>Адреса для лога ЛДМ + ИД</t>
+  </si>
+  <si>
+    <t>АСИП</t>
   </si>
 </sst>
 </file>
@@ -8009,7 +8590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -8069,11 +8650,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8084,6 +8696,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8381,7 +9002,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8438,6 +9059,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" t="s">
@@ -8455,6 +9077,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" t="s">
@@ -8472,6 +9095,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" t="s">
@@ -8504,6 +9128,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -8519,6 +9147,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8530,11 +9161,24 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>80</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8569,83 +9213,84 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>200</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>300</v>
       </c>
@@ -13654,7 +14299,7 @@
   <dimension ref="A1:K1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13708,6 +14353,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -13717,6 +14363,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -13726,6 +14373,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -18879,10 +19527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K886"/>
+  <dimension ref="A1:L886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18948,6 +19596,8 @@
       <c r="A5" s="1">
         <v>30</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -18990,10 +19640,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -19032,13 +19682,13 @@
         <v>150</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -19048,8 +19698,8 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -19090,8 +19740,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -19131,13 +19781,13 @@
         <v>250</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -19147,8 +19797,8 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -19189,8 +19839,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -19230,13 +19880,13 @@
         <v>350</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -19246,8 +19896,8 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -19284,7 +19934,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="2"/>
       <c r="H42"/>
     </row>
@@ -19303,6 +19953,11 @@
       <c r="A44" s="1">
         <v>420</v>
       </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -19326,9 +19981,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="7"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -19390,7 +20046,7 @@
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -19488,8 +20144,8 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6"/>
       <c r="I68" s="7"/>
@@ -19634,83 +20290,100 @@
         <v>940</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>950</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>960</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>970</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>980</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>990</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1000</v>
       </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1020</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1030</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1040</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1050</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1060</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1070</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1080</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1090</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1100</v>
       </c>
@@ -20115,82 +20788,85 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1910</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1920</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1930</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1940</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1950</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1960</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1970</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1980</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1990</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2030</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2040</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2060</v>
       </c>
@@ -23586,7 +24262,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="86">
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:C30"/>
@@ -23666,6 +24342,13 @@
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="B102:K102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23778,31 +24461,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -23814,53 +24497,53 @@
       <c r="A15" s="1">
         <v>130</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>140</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>160</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -23881,31 +24564,31 @@
       <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -23917,53 +24600,53 @@
       <c r="A25" s="1">
         <v>230</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>240</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>260</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -23984,31 +24667,31 @@
       <c r="A32" s="3">
         <v>300</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -24020,53 +24703,53 @@
       <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>340</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>360</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -24140,8 +24823,8 @@
       <c r="A52" s="3">
         <v>500</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
